--- a/data_year/zb/国民经济核算/投入产出基本流量表/中间使用部分/食品、饮料制造及烟草制品业.xlsx
+++ b/data_year/zb/国民经济核算/投入产出基本流量表/中间使用部分/食品、饮料制造及烟草制品业.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,623 +558,376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3974829.4</v>
+        <v>14883696.0858933</v>
       </c>
       <c r="C2" t="n">
-        <v>176170</v>
+        <v>5132257.67007427</v>
       </c>
       <c r="D2" t="n">
-        <v>59862700</v>
+        <v>267409864.682863</v>
       </c>
       <c r="E2" t="n">
-        <v>4083860</v>
+        <v>18635924.2552942</v>
       </c>
       <c r="F2" t="n">
-        <v>82607.8</v>
+        <v>190607.391300933</v>
       </c>
       <c r="G2" t="n">
-        <v>1964981.7</v>
+        <v>12324720.9091943</v>
       </c>
       <c r="H2" t="n">
-        <v>5867276</v>
+        <v>20326236.456728</v>
       </c>
       <c r="I2" t="n">
-        <v>1274015.3</v>
+        <v>4875077.11061884</v>
       </c>
       <c r="J2" t="n">
-        <v>394562.62</v>
+        <v>1896848.08481029</v>
       </c>
       <c r="K2" t="n">
-        <v>1527740</v>
+        <v>7679627.51691237</v>
       </c>
       <c r="L2" t="n">
-        <v>334723</v>
+        <v>1233454.68877472</v>
       </c>
       <c r="M2" t="n">
-        <v>1982753.23</v>
+        <v>20730717.0542887</v>
       </c>
       <c r="N2" t="n">
-        <v>518939.2</v>
+        <v>2087163.2153059</v>
       </c>
       <c r="O2" t="n">
-        <v>947916.6</v>
+        <v>3887410.34356287</v>
       </c>
       <c r="P2" t="n">
-        <v>901546</v>
+        <v>6952813.42477929</v>
       </c>
       <c r="Q2" t="n">
-        <v>734792</v>
+        <v>4665757.48611402</v>
       </c>
       <c r="R2" t="n">
-        <v>100399412.85</v>
+        <v>532194044.898974</v>
       </c>
       <c r="S2" t="n">
-        <v>18150700.7412216</v>
+        <v>41390650.5253129</v>
       </c>
       <c r="T2" t="n">
-        <v>7041765.46391378</v>
+        <v>12827120.830553</v>
       </c>
       <c r="U2" t="n">
-        <v>46108690.4377291</v>
+        <v>142128809.448858</v>
       </c>
       <c r="V2" t="n">
-        <v>146508103.287729</v>
+        <v>674322854.347832</v>
       </c>
       <c r="W2" t="n">
-        <v>15770000</v>
+        <v>139281868.522459</v>
       </c>
       <c r="X2" t="n">
-        <v>11616865.6476187</v>
+        <v>46684861.6579558</v>
       </c>
       <c r="Y2" t="n">
-        <v>9299358.584975</v>
+        <v>41226176.4350366</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3445671.57186191</v>
+        <v>11777338.4658552</v>
       </c>
       <c r="C3" t="n">
-        <v>1056733.74733567</v>
+        <v>5540277.59516579</v>
       </c>
       <c r="D3" t="n">
-        <v>48665195.4744888</v>
+        <v>318414724.282421</v>
       </c>
       <c r="E3" t="n">
-        <v>4769906.93425246</v>
+        <v>17482243.0522678</v>
       </c>
       <c r="F3" t="n">
-        <v>39328.0986120493</v>
+        <v>953145.051002497</v>
       </c>
       <c r="G3" t="n">
-        <v>3359790.18798504</v>
+        <v>11339615.1665718</v>
       </c>
       <c r="H3" t="n">
-        <v>7751174.54554076</v>
+        <v>45545282.9470365</v>
       </c>
       <c r="I3" t="n">
-        <v>1268581.56503736</v>
+        <v>3177810.34607643</v>
       </c>
       <c r="J3" t="n">
-        <v>351415.251848304</v>
+        <v>1410629.6922641</v>
       </c>
       <c r="K3" t="n">
-        <v>1601605.95780678</v>
+        <v>7831247.97683079</v>
       </c>
       <c r="L3" t="n">
-        <v>288534.161111124</v>
+        <v>1512004.60915664</v>
       </c>
       <c r="M3" t="n">
-        <v>3898697.36029839</v>
+        <v>28801681.3009164</v>
       </c>
       <c r="N3" t="n">
-        <v>578517.744971709</v>
+        <v>2207682.09916549</v>
       </c>
       <c r="O3" t="n">
-        <v>1267906.48121393</v>
+        <v>2771168.69260663</v>
       </c>
       <c r="P3" t="n">
-        <v>1146338.98657261</v>
+        <v>9663331.727534629</v>
       </c>
       <c r="Q3" t="n">
-        <v>829371.132730544</v>
+        <v>3967006.04778413</v>
       </c>
       <c r="R3" t="n">
-        <v>99835961.0666339</v>
+        <v>672600996.642635</v>
       </c>
       <c r="S3" t="n">
-        <v>12041767.536255</v>
+        <v>64181322.640561</v>
       </c>
       <c r="T3" t="n">
-        <v>6419373.1639103</v>
+        <v>21676418.0107418</v>
       </c>
       <c r="U3" t="n">
-        <v>44971866.8451587</v>
+        <v>206994841.401751</v>
       </c>
       <c r="V3" t="n">
-        <v>144807827.911793</v>
+        <v>879595838.044386</v>
       </c>
       <c r="W3" t="n">
-        <v>19517191.8649665</v>
+        <v>200205807.589979</v>
       </c>
       <c r="X3" t="n">
-        <v>16584325.0676267</v>
+        <v>62368022.9935346</v>
       </c>
       <c r="Y3" t="n">
-        <v>9926401.07736676</v>
+        <v>58769077.7569138</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5439680.48201759</v>
+        <v>13456516.4815114</v>
       </c>
       <c r="C4" t="n">
-        <v>2554455.16651495</v>
+        <v>6863120.91957463</v>
       </c>
       <c r="D4" t="n">
-        <v>92360742.81397951</v>
+        <v>425304059.755902</v>
       </c>
       <c r="E4" t="n">
-        <v>8000008.05807999</v>
+        <v>17938453.0653534</v>
       </c>
       <c r="F4" t="n">
-        <v>85651.4352436737</v>
+        <v>1162246.49434194</v>
       </c>
       <c r="G4" t="n">
-        <v>5160389.71254789</v>
+        <v>17122842.4473009</v>
       </c>
       <c r="H4" t="n">
-        <v>10083866.731479</v>
+        <v>54869403.7324721</v>
       </c>
       <c r="I4" t="n">
-        <v>2029425.43744475</v>
+        <v>3801455.02256058</v>
       </c>
       <c r="J4" t="n">
-        <v>779765.2131638071</v>
+        <v>723452.840265434</v>
       </c>
       <c r="K4" t="n">
-        <v>2898799.82891108</v>
+        <v>6004438.43994093</v>
       </c>
       <c r="L4" t="n">
-        <v>515159.707921303</v>
+        <v>1961078.47682797</v>
       </c>
       <c r="M4" t="n">
-        <v>7997428.02673637</v>
+        <v>27762026.6561203</v>
       </c>
       <c r="N4" t="n">
-        <v>1224671.89593224</v>
+        <v>1596985.76010832</v>
       </c>
       <c r="O4" t="n">
-        <v>2208122.02565441</v>
+        <v>2782964.2435395</v>
       </c>
       <c r="P4" t="n">
-        <v>1613729.68264519</v>
+        <v>10825122.120144</v>
       </c>
       <c r="Q4" t="n">
-        <v>1509295.36770521</v>
+        <v>4638569.77287398</v>
       </c>
       <c r="R4" t="n">
-        <v>185142021.377903</v>
+        <v>884145627.103658</v>
       </c>
       <c r="S4" t="n">
-        <v>15307412.7742489</v>
+        <v>73436221.7250381</v>
       </c>
       <c r="T4" t="n">
-        <v>7781458.86211491</v>
+        <v>24210009.9401071</v>
       </c>
       <c r="U4" t="n">
-        <v>73635934.4385366</v>
+        <v>260110764.663572</v>
       </c>
       <c r="V4" t="n">
-        <v>258777955.816439</v>
+        <v>1144256391.76723</v>
       </c>
       <c r="W4" t="n">
-        <v>40680829.7919257</v>
+        <v>287332890.87482</v>
       </c>
       <c r="X4" t="n">
-        <v>25664925.2049739</v>
+        <v>81045869.15794019</v>
       </c>
       <c r="Y4" t="n">
-        <v>24882137.5971988</v>
+        <v>81418663.8404869</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10203995.6331674</v>
+        <v>755482.083889429</v>
       </c>
       <c r="C5" t="n">
-        <v>3083167.54835882</v>
+        <v>41182413.4852418</v>
       </c>
       <c r="D5" t="n">
-        <v>159461184.417659</v>
-      </c>
-      <c r="E5" t="n">
-        <v>12303066.2922219</v>
-      </c>
+        <v>453048076.941853</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>107563.857622761</v>
-      </c>
-      <c r="G5" t="n">
-        <v>6357898.56583964</v>
-      </c>
-      <c r="H5" t="n">
-        <v>12253098.7239633</v>
-      </c>
+        <v>239957.360577433</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>3150791.55443162</v>
+        <v>5224348.29743866</v>
       </c>
       <c r="J5" t="n">
-        <v>1526463.99945748</v>
+        <v>24526466.1293457</v>
       </c>
       <c r="K5" t="n">
-        <v>4800059.8090771</v>
+        <v>11871750.5265736</v>
       </c>
       <c r="L5" t="n">
-        <v>749352.4879226059</v>
-      </c>
-      <c r="M5" t="n">
-        <v>11887284.7600386</v>
-      </c>
+        <v>4482197.96100743</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>1499129.31058873</v>
+        <v>3547564.92203721</v>
       </c>
       <c r="O5" t="n">
-        <v>2421013.34689539</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3921119.03644375</v>
-      </c>
+        <v>4814090.0202573</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>2827726.03243095</v>
+        <v>5969996.08564679</v>
       </c>
       <c r="R5" t="n">
-        <v>316119411.080161</v>
+        <v>963680583.8679169</v>
       </c>
       <c r="S5" t="n">
-        <v>30907477.6160689</v>
+        <v>103767978.008919</v>
       </c>
       <c r="T5" t="n">
-        <v>14051519.7402399</v>
+        <v>26789100.5267357</v>
       </c>
       <c r="U5" t="n">
-        <v>101784535.573736</v>
+        <v>298395695.130346</v>
       </c>
       <c r="V5" t="n">
-        <v>417903946.653897</v>
+        <v>1262076278.99826</v>
       </c>
       <c r="W5" t="n">
-        <v>79566495.7040419</v>
+        <v>269505600.836104</v>
       </c>
       <c r="X5" t="n">
-        <v>32419380.3727136</v>
+        <v>82762475.7154056</v>
       </c>
       <c r="Y5" t="n">
-        <v>24406157.8447137</v>
+        <v>85076140.87928499</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14883696.0858933</v>
+        <v>651164.6622356049</v>
       </c>
       <c r="C6" t="n">
-        <v>5132257.67007427</v>
+        <v>38190842.4491242</v>
       </c>
       <c r="D6" t="n">
-        <v>267409864.682863</v>
-      </c>
-      <c r="E6" t="n">
-        <v>18635924.2552942</v>
-      </c>
+        <v>467586720.286462</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>190607.391300933</v>
-      </c>
-      <c r="G6" t="n">
-        <v>12324720.9091943</v>
-      </c>
-      <c r="H6" t="n">
-        <v>20326236.456728</v>
-      </c>
+        <v>215253.6531569</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>4875077.11061884</v>
+        <v>3664548.02398329</v>
       </c>
       <c r="J6" t="n">
-        <v>1896848.08481029</v>
+        <v>18741015.6017435</v>
       </c>
       <c r="K6" t="n">
-        <v>7679627.51691237</v>
+        <v>9957425.62598332</v>
       </c>
       <c r="L6" t="n">
-        <v>1233454.68877472</v>
-      </c>
-      <c r="M6" t="n">
-        <v>20730717.0542887</v>
-      </c>
+        <v>3696564.17524091</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>2087163.2153059</v>
+        <v>2695983.04487798</v>
       </c>
       <c r="O6" t="n">
-        <v>3887410.34356287</v>
-      </c>
-      <c r="P6" t="n">
-        <v>6952813.42477929</v>
-      </c>
+        <v>3905405.55407874</v>
+      </c>
+      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>4665757.48611402</v>
+        <v>4888099.93514356</v>
       </c>
       <c r="R6" t="n">
-        <v>532194044.898974</v>
+        <v>944349112.048559</v>
       </c>
       <c r="S6" t="n">
-        <v>41390650.5253129</v>
+        <v>92288059.9056758</v>
       </c>
       <c r="T6" t="n">
-        <v>12827120.830553</v>
+        <v>30616039.4796629</v>
       </c>
       <c r="U6" t="n">
-        <v>142128809.448858</v>
+        <v>307013686.122547</v>
       </c>
       <c r="V6" t="n">
-        <v>674322854.347832</v>
+        <v>1251362798.17111</v>
       </c>
       <c r="W6" t="n">
-        <v>139281868.522459</v>
+        <v>249372493.69703</v>
       </c>
       <c r="X6" t="n">
-        <v>46684861.6579558</v>
+        <v>82927929.56715021</v>
       </c>
       <c r="Y6" t="n">
-        <v>41226176.4350366</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>11777338.4658552</v>
-      </c>
-      <c r="C7" t="n">
-        <v>5540277.59516579</v>
-      </c>
-      <c r="D7" t="n">
-        <v>318414724.282421</v>
-      </c>
-      <c r="E7" t="n">
-        <v>17482243.0522678</v>
-      </c>
-      <c r="F7" t="n">
-        <v>953145.051002497</v>
-      </c>
-      <c r="G7" t="n">
-        <v>11339615.1665718</v>
-      </c>
-      <c r="H7" t="n">
-        <v>45545282.9470365</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3177810.34607643</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1410629.6922641</v>
-      </c>
-      <c r="K7" t="n">
-        <v>7831247.97683079</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1512004.60915664</v>
-      </c>
-      <c r="M7" t="n">
-        <v>28801681.3009164</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2207682.09916549</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2771168.69260663</v>
-      </c>
-      <c r="P7" t="n">
-        <v>9663331.727534629</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3967006.04778413</v>
-      </c>
-      <c r="R7" t="n">
-        <v>672600996.642635</v>
-      </c>
-      <c r="S7" t="n">
-        <v>64181322.640561</v>
-      </c>
-      <c r="T7" t="n">
-        <v>21676418.0107418</v>
-      </c>
-      <c r="U7" t="n">
-        <v>206994841.401751</v>
-      </c>
-      <c r="V7" t="n">
-        <v>879595838.044386</v>
-      </c>
-      <c r="W7" t="n">
-        <v>200205807.589979</v>
-      </c>
-      <c r="X7" t="n">
-        <v>62368022.9935346</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>58769077.7569138</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>13456516.4815114</v>
-      </c>
-      <c r="C8" t="n">
-        <v>6863120.91957463</v>
-      </c>
-      <c r="D8" t="n">
-        <v>425304059.755902</v>
-      </c>
-      <c r="E8" t="n">
-        <v>17938453.0653534</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1162246.49434194</v>
-      </c>
-      <c r="G8" t="n">
-        <v>17122842.4473009</v>
-      </c>
-      <c r="H8" t="n">
-        <v>54869403.7324721</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3801455.02256058</v>
-      </c>
-      <c r="J8" t="n">
-        <v>723452.840265434</v>
-      </c>
-      <c r="K8" t="n">
-        <v>6004438.43994093</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1961078.47682797</v>
-      </c>
-      <c r="M8" t="n">
-        <v>27762026.6561203</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1596985.76010832</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2782964.2435395</v>
-      </c>
-      <c r="P8" t="n">
-        <v>10825122.120144</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>4638569.77287398</v>
-      </c>
-      <c r="R8" t="n">
-        <v>884145627.103658</v>
-      </c>
-      <c r="S8" t="n">
-        <v>73436221.7250381</v>
-      </c>
-      <c r="T8" t="n">
-        <v>24210009.9401071</v>
-      </c>
-      <c r="U8" t="n">
-        <v>260110764.663572</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1144256391.76723</v>
-      </c>
-      <c r="W8" t="n">
-        <v>287332890.87482</v>
-      </c>
-      <c r="X8" t="n">
-        <v>81045869.15794019</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>81418663.8404869</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>755482.083889429</v>
-      </c>
-      <c r="C9" t="n">
-        <v>41182413.4852418</v>
-      </c>
-      <c r="D9" t="n">
-        <v>453048076.941853</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>239957.360577433</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
-        <v>5224348.29743866</v>
-      </c>
-      <c r="J9" t="n">
-        <v>24526466.1293457</v>
-      </c>
-      <c r="K9" t="n">
-        <v>11871750.5265736</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4482197.96100743</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
-        <v>3547564.92203721</v>
-      </c>
-      <c r="O9" t="n">
-        <v>4814090.0202573</v>
-      </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="n">
-        <v>5969996.08564679</v>
-      </c>
-      <c r="R9" t="n">
-        <v>963680583.8679169</v>
-      </c>
-      <c r="S9" t="n">
-        <v>103767978.008919</v>
-      </c>
-      <c r="T9" t="n">
-        <v>26789100.5267357</v>
-      </c>
-      <c r="U9" t="n">
-        <v>298395695.130346</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1262076278.99826</v>
-      </c>
-      <c r="W9" t="n">
-        <v>269505600.836104</v>
-      </c>
-      <c r="X9" t="n">
-        <v>82762475.7154056</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>85076140.87928499</v>
+        <v>101181657.170058</v>
       </c>
     </row>
   </sheetData>
